--- a/Documentacion/Product backlog/Product Backlog v1.2/Historias de Usuario versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Historias de Usuario versión 1.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F350354C-256C-4C2F-BFCB-3AA280243098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B29C95-A755-4B66-BEFC-D5FAB8B61FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,7 +482,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,6 +507,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -839,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -892,18 +898,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -913,21 +907,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -936,9 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -948,6 +924,63 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DBEB7-C3D2-4473-9B85-4CF26F3AA489}">
   <dimension ref="B1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,324 +1308,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="2:9" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="32" t="s">
         <v>121</v>
       </c>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="42" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="19" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45" t="s">
         <v>87</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="27"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="20" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="42" t="s">
         <v>89</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="19" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51" t="s">
         <v>91</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="42" t="s">
         <v>92</v>
       </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="19" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45" t="s">
         <v>93</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="20" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48" t="s">
         <v>94</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="42" t="s">
         <v>95</v>
       </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="19" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45" t="s">
         <v>96</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48" t="s">
         <v>97</v>
       </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="42" t="s">
         <v>98</v>
       </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="19" t="s">
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45" t="s">
         <v>99</v>
       </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35" t="s">
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51" t="s">
         <v>100</v>
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+    <row r="21" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="37" t="s">
         <v>32</v>
       </c>
       <c r="H21" s="23" t="s">
@@ -1600,35 +1633,35 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+    <row r="22" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="36"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="20" t="s">
         <v>102</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="37" t="s">
         <v>61</v>
       </c>
       <c r="H23" s="23" t="s">
@@ -1637,34 +1670,34 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="20" t="s">
         <v>104</v>
       </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="37" t="s">
         <v>72</v>
       </c>
       <c r="H25" s="23" t="s">
@@ -1673,46 +1706,46 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="26"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="19" t="s">
         <v>106</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="27"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="20" t="s">
         <v>107</v>
       </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="37" t="s">
         <v>66</v>
       </c>
       <c r="H28" s="23" t="s">
@@ -1721,34 +1754,34 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="27"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="20" t="s">
         <v>109</v>
       </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="37" t="s">
         <v>69</v>
       </c>
       <c r="H30" s="23" t="s">
@@ -1757,34 +1790,34 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="27"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="20" t="s">
         <v>111</v>
       </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="37" t="s">
         <v>75</v>
       </c>
       <c r="H32" s="23" t="s">
@@ -1793,34 +1826,34 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="27"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
       <c r="H33" s="20" t="s">
         <v>113</v>
       </c>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="37" t="s">
         <v>78</v>
       </c>
       <c r="H34" s="23" t="s">
@@ -1829,34 +1862,34 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="27"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
       <c r="H35" s="20" t="s">
         <v>115</v>
       </c>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="32" t="s">
+      <c r="G36" s="37" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="23" t="s">
@@ -1865,58 +1898,58 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="27"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
       <c r="H37" s="20" t="s">
         <v>117</v>
       </c>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="37" t="s">
+      <c r="G38" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="38" t="s">
+      <c r="H38" s="29" t="s">
         <v>118</v>
       </c>
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="37" t="s">
         <v>85</v>
       </c>
       <c r="H39" s="23" t="s">
@@ -1925,12 +1958,12 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="27"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
       <c r="H40" s="20" t="s">
         <v>120</v>
       </c>
@@ -2373,13 +2406,72 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B1:H3"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:C14"/>
@@ -2392,72 +2484,13 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="B1:H3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Historias de Usuario versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Historias de Usuario versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B29C95-A755-4B66-BEFC-D5FAB8B61FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADEC388-9614-465A-A327-16CDCF895445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,62 +925,62 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DBEB7-C3D2-4473-9B85-4CF26F3AA489}">
   <dimension ref="B1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:H22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,33 +1308,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="2:9" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
@@ -1371,282 +1371,282 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="33" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="34" t="s">
         <v>87</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="35" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="33" t="s">
         <v>89</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="34" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="36" t="s">
         <v>91</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="33" t="s">
         <v>92</v>
       </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="34" t="s">
         <v>93</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="35" t="s">
         <v>94</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="33" t="s">
         <v>95</v>
       </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="34" t="s">
         <v>96</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="35" t="s">
         <v>97</v>
       </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H18" s="33" t="s">
         <v>98</v>
       </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="34" t="s">
         <v>99</v>
       </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="36" t="s">
         <v>100</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="33" t="s">
         <v>101</v>
       </c>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="36"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="20" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="35" t="s">
         <v>102</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="39" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="37" t="s">
@@ -1670,19 +1670,19 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="36"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="20" t="s">
         <v>104</v>
       </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="37" t="s">
@@ -1706,31 +1706,31 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="35"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="19" t="s">
         <v>106</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="36"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="20" t="s">
         <v>107</v>
       </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="37" t="s">
@@ -1754,19 +1754,19 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="20" t="s">
         <v>109</v>
       </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="39" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="37" t="s">
@@ -1790,19 +1790,19 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="36"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="20" t="s">
         <v>111</v>
       </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="39" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="37" t="s">
@@ -1826,19 +1826,19 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="36"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
       <c r="H33" s="20" t="s">
         <v>113</v>
       </c>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="39" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="37" t="s">
@@ -1862,19 +1862,19 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="36"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
       <c r="H35" s="20" t="s">
         <v>115</v>
       </c>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="39" t="s">
         <v>40</v>
       </c>
       <c r="C36" s="37" t="s">
@@ -1898,12 +1898,12 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="36"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
       <c r="H37" s="20" t="s">
         <v>117</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="37" t="s">
@@ -1958,12 +1958,12 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="36"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
       <c r="H40" s="20" t="s">
         <v>120</v>
       </c>
@@ -2406,12 +2406,73 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="B1:H3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
@@ -2424,73 +2485,12 @@
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="B1:H3"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Historias de Usuario versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Historias de Usuario versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADEC388-9614-465A-A327-16CDCF895445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75994D75-296F-456D-9D25-A7F5CD0844DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,50 +937,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DBEB7-C3D2-4473-9B85-4CF26F3AA489}">
   <dimension ref="B1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,33 +1308,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="2:9" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
@@ -1371,22 +1371,22 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="41" t="s">
         <v>70</v>
       </c>
       <c r="H6" s="33" t="s">
@@ -1394,46 +1394,46 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="47"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="34" t="s">
         <v>87</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="50"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="35" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="41" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="33" t="s">
@@ -1442,46 +1442,46 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="34" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="36" t="s">
         <v>91</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="41" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="33" t="s">
@@ -1490,46 +1490,46 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="34" t="s">
         <v>93</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="50"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="35" t="s">
         <v>94</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="41" t="s">
         <v>71</v>
       </c>
       <c r="H15" s="33" t="s">
@@ -1538,46 +1538,46 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="34" t="s">
         <v>96</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="50"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="35" t="s">
         <v>97</v>
       </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="41" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="33" t="s">
@@ -1586,46 +1586,46 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="34" t="s">
         <v>99</v>
       </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="36" t="s">
         <v>100</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="41" t="s">
         <v>32</v>
       </c>
       <c r="H21" s="33" t="s">
@@ -1634,34 +1634,34 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="50"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="35" t="s">
         <v>102</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="48" t="s">
         <v>61</v>
       </c>
       <c r="H23" s="23" t="s">
@@ -1670,34 +1670,34 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="40"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="20" t="s">
         <v>104</v>
       </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="48" t="s">
         <v>72</v>
       </c>
       <c r="H25" s="23" t="s">
@@ -1706,46 +1706,46 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="42"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="19" t="s">
         <v>106</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="40"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="20" t="s">
         <v>107</v>
       </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="48" t="s">
         <v>66</v>
       </c>
       <c r="H28" s="23" t="s">
@@ -1754,34 +1754,34 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="40"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="20" t="s">
         <v>109</v>
       </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="48" t="s">
         <v>69</v>
       </c>
       <c r="H30" s="23" t="s">
@@ -1790,34 +1790,34 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="40"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="20" t="s">
         <v>111</v>
       </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="48" t="s">
         <v>75</v>
       </c>
       <c r="H32" s="23" t="s">
@@ -1826,34 +1826,34 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="40"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="20" t="s">
         <v>113</v>
       </c>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="48" t="s">
         <v>78</v>
       </c>
       <c r="H34" s="23" t="s">
@@ -1862,34 +1862,34 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="20" t="s">
         <v>115</v>
       </c>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="48" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="23" t="s">
@@ -1898,12 +1898,12 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="40"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
       <c r="H37" s="20" t="s">
         <v>117</v>
       </c>
@@ -1934,22 +1934,22 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="37" t="s">
+      <c r="G39" s="48" t="s">
         <v>85</v>
       </c>
       <c r="H39" s="23" t="s">
@@ -1958,12 +1958,12 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="40"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
       <c r="H40" s="20" t="s">
         <v>120</v>
       </c>
@@ -2406,13 +2406,72 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B1:H3"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:C14"/>
@@ -2425,72 +2484,13 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="B1:H3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Historias de Usuario versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Historias de Usuario versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75994D75-296F-456D-9D25-A7F5CD0844DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2C66E4-F40A-4F34-9A20-91826A5FB84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,50 +937,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,7 +1289,7 @@
   <dimension ref="B1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,33 +1308,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
     </row>
     <row r="2" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="2:9" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
@@ -1371,22 +1371,22 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="43" t="s">
         <v>70</v>
       </c>
       <c r="H6" s="33" t="s">
@@ -1394,46 +1394,46 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="34" t="s">
         <v>87</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
       <c r="H8" s="35" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="43" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="33" t="s">
@@ -1442,46 +1442,46 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="34" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="36" t="s">
         <v>91</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="43" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="33" t="s">
@@ -1490,46 +1490,46 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="34" t="s">
         <v>93</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="35" t="s">
         <v>94</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="43" t="s">
         <v>71</v>
       </c>
       <c r="H15" s="33" t="s">
@@ -1538,46 +1538,46 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="34" t="s">
         <v>96</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="40"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="35" t="s">
         <v>97</v>
       </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="43" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="33" t="s">
@@ -1586,46 +1586,46 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="34" t="s">
         <v>99</v>
       </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="36" t="s">
         <v>100</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="43" t="s">
         <v>32</v>
       </c>
       <c r="H21" s="33" t="s">
@@ -1634,34 +1634,34 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="40"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="35" t="s">
         <v>102</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="37" t="s">
         <v>61</v>
       </c>
       <c r="H23" s="23" t="s">
@@ -1670,34 +1670,34 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="20" t="s">
         <v>104</v>
       </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="37" t="s">
         <v>72</v>
       </c>
       <c r="H25" s="23" t="s">
@@ -1706,46 +1706,46 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="51"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="19" t="s">
         <v>106</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="20" t="s">
         <v>107</v>
       </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="37" t="s">
         <v>66</v>
       </c>
       <c r="H28" s="23" t="s">
@@ -1754,34 +1754,34 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="47"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="20" t="s">
         <v>109</v>
       </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="37" t="s">
         <v>69</v>
       </c>
       <c r="H30" s="23" t="s">
@@ -1790,34 +1790,34 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="47"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="20" t="s">
         <v>111</v>
       </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="48" t="s">
+      <c r="G32" s="37" t="s">
         <v>75</v>
       </c>
       <c r="H32" s="23" t="s">
@@ -1826,34 +1826,34 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="47"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
       <c r="H33" s="20" t="s">
         <v>113</v>
       </c>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="37" t="s">
         <v>78</v>
       </c>
       <c r="H34" s="23" t="s">
@@ -1862,34 +1862,34 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="47"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
       <c r="H35" s="20" t="s">
         <v>115</v>
       </c>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="48" t="s">
+      <c r="G36" s="37" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="23" t="s">
@@ -1898,12 +1898,12 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="47"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
       <c r="H37" s="20" t="s">
         <v>117</v>
       </c>
@@ -1934,22 +1934,22 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="48" t="s">
+      <c r="G39" s="37" t="s">
         <v>85</v>
       </c>
       <c r="H39" s="23" t="s">
@@ -1958,12 +1958,12 @@
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="47"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
       <c r="H40" s="20" t="s">
         <v>120</v>
       </c>
@@ -2406,12 +2406,73 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="B1:H3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
@@ -2424,73 +2485,12 @@
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="B1:H3"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Historias de Usuario versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Historias de Usuario versión 1.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2C66E4-F40A-4F34-9A20-91826A5FB84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF0CEDB-26B1-4C5F-B2C7-15D45D85744E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="3" r:id="rId1"/>
@@ -399,9 +399,6 @@
     <t>- El usuario debe poder eliminar productos fácilmente.</t>
   </si>
   <si>
-    <t>- El total y el subtotal deben actualizarse dinámicamente.</t>
-  </si>
-  <si>
     <t>- El usuario debe visualizar un listado de pedidos pasados con detalles completos (productos, precios, fechas).</t>
   </si>
   <si>
@@ -412,6 +409,9 @@
   </si>
   <si>
     <t>Criterios de aceptación</t>
+  </si>
+  <si>
+    <t>El total del producto debe actualizarse.</t>
   </si>
 </sst>
 </file>
@@ -937,50 +937,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DBEB7-C3D2-4473-9B85-4CF26F3AA489}">
   <dimension ref="B1:I139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="D30" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,33 +1308,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="2:9" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
@@ -1356,7 +1356,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I4" s="10"/>
     </row>
@@ -1371,22 +1371,22 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="41" t="s">
         <v>70</v>
       </c>
       <c r="H6" s="33" t="s">
@@ -1394,46 +1394,46 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="34" t="s">
         <v>87</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="35" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="41" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="33" t="s">
@@ -1442,46 +1442,46 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="48"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="34" t="s">
         <v>90</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="36" t="s">
         <v>91</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="41" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="33" t="s">
@@ -1490,46 +1490,46 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="48"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="34" t="s">
         <v>93</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="46"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="35" t="s">
         <v>94</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="41" t="s">
         <v>71</v>
       </c>
       <c r="H15" s="33" t="s">
@@ -1538,46 +1538,46 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="48"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="34" t="s">
         <v>96</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="46"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="35" t="s">
         <v>97</v>
       </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="41" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="33" t="s">
@@ -1586,46 +1586,46 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="34" t="s">
         <v>99</v>
       </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="36" t="s">
         <v>100</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="2:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="41" t="s">
         <v>32</v>
       </c>
       <c r="H21" s="33" t="s">
@@ -1634,34 +1634,34 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="2:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="35" t="s">
         <v>102</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="48" t="s">
         <v>61</v>
       </c>
       <c r="H23" s="23" t="s">
@@ -1670,34 +1670,34 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="40"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="20" t="s">
         <v>104</v>
       </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="48" t="s">
         <v>72</v>
       </c>
       <c r="H25" s="23" t="s">
@@ -1706,46 +1706,46 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="42"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="19" t="s">
         <v>106</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="40"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="20" t="s">
         <v>107</v>
       </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="48" t="s">
         <v>66</v>
       </c>
       <c r="H28" s="23" t="s">
@@ -1754,34 +1754,34 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="40"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="20" t="s">
         <v>109</v>
       </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="48" t="s">
         <v>69</v>
       </c>
       <c r="H30" s="23" t="s">
@@ -1790,34 +1790,34 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="40"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="20" t="s">
         <v>111</v>
       </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="48" t="s">
         <v>75</v>
       </c>
       <c r="H32" s="23" t="s">
@@ -1826,34 +1826,34 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="40"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="20" t="s">
         <v>113</v>
       </c>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="48" t="s">
         <v>78</v>
       </c>
       <c r="H34" s="23" t="s">
@@ -1862,34 +1862,34 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="20" t="s">
         <v>115</v>
       </c>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="48" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="23" t="s">
@@ -1897,15 +1897,15 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="40"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
+    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="47"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
       <c r="H37" s="20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I37" s="8"/>
     </row>
@@ -1929,43 +1929,43 @@
         <v>33</v>
       </c>
       <c r="H38" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="H39" s="23" t="s">
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="47"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="2:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="40"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="20" t="s">
-        <v>120</v>
       </c>
       <c r="I40" s="8"/>
     </row>
@@ -2406,13 +2406,72 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="B1:H3"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:C14"/>
@@ -2425,72 +2484,13 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="B1:H3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Historias de Usuario versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Historias de Usuario versión 1.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsaet\OneDrive\Escritorio\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4B9D90-CA5D-4420-B232-8E8B21FF7DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCCBF01A-AA3D-412E-B9BD-BF26C6935516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1278,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DBEB7-C3D2-4473-9B85-4CF26F3AA489}">
   <dimension ref="B1:GX252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7301,7 +7302,7 @@
         <v>105</v>
       </c>
       <c r="I31" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -7511,7 +7512,7 @@
         <v>106</v>
       </c>
       <c r="I32" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -7721,7 +7722,7 @@
         <v>107</v>
       </c>
       <c r="I33" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -7943,7 +7944,7 @@
         <v>108</v>
       </c>
       <c r="I34" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>

--- a/Documentacion/Product backlog/Product Backlog v1.2/Historias de Usuario versión 1.2.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.2/Historias de Usuario versión 1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCCBF01A-AA3D-412E-B9BD-BF26C6935516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7DB460-FBB1-419B-BB27-7D2C2F93650E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -871,29 +870,11 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -921,6 +902,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1279,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1DBEB7-C3D2-4473-9B85-4CF26F3AA489}">
   <dimension ref="B1:GX252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,26 +1299,26 @@
   <sheetData>
     <row r="1" spans="2:206" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:206" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="2:206" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -1518,14 +1517,14 @@
       <c r="GX3" s="9"/>
     </row>
     <row r="4" spans="2:206" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -1946,22 +1945,22 @@
       <c r="GX5" s="9"/>
     </row>
     <row r="6" spans="2:206" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="23" t="s">
         <v>70</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -2168,12 +2167,12 @@
       <c r="GX6" s="9"/>
     </row>
     <row r="7" spans="2:206" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="14" t="s">
         <v>87</v>
       </c>
@@ -2378,12 +2377,12 @@
       <c r="GX7" s="9"/>
     </row>
     <row r="8" spans="2:206" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="14" t="s">
         <v>88</v>
       </c>
@@ -2589,8 +2588,8 @@
     </row>
     <row r="9" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -2798,22 +2797,22 @@
       <c r="GX9" s="9"/>
     </row>
     <row r="10" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="34" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="17" t="s">
@@ -3020,12 +3019,12 @@
       <c r="GX10" s="9"/>
     </row>
     <row r="11" spans="2:206" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="14" t="s">
         <v>90</v>
       </c>
@@ -3230,12 +3229,12 @@
       <c r="GX11" s="9"/>
     </row>
     <row r="12" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="14" t="s">
         <v>91</v>
       </c>
@@ -3441,8 +3440,8 @@
     </row>
     <row r="13" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -3650,22 +3649,22 @@
       <c r="GX13" s="9"/>
     </row>
     <row r="14" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="34" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="17" t="s">
@@ -3872,12 +3871,12 @@
       <c r="GX14" s="9"/>
     </row>
     <row r="15" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="14" t="s">
         <v>93</v>
       </c>
@@ -4082,12 +4081,12 @@
       <c r="GX15" s="9"/>
     </row>
     <row r="16" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="14" t="s">
         <v>94</v>
       </c>
@@ -4293,8 +4292,8 @@
     </row>
     <row r="17" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="24"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -4502,22 +4501,22 @@
       <c r="GX17" s="9"/>
     </row>
     <row r="18" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="34" t="s">
         <v>71</v>
       </c>
       <c r="H18" s="17" t="s">
@@ -4724,12 +4723,12 @@
       <c r="GX18" s="9"/>
     </row>
     <row r="19" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="14" t="s">
         <v>96</v>
       </c>
@@ -4934,12 +4933,12 @@
       <c r="GX19" s="9"/>
     </row>
     <row r="20" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="14" t="s">
         <v>97</v>
       </c>
@@ -5145,8 +5144,8 @@
     </row>
     <row r="21" spans="2:206" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="24"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -5354,22 +5353,22 @@
       <c r="GX21" s="9"/>
     </row>
     <row r="22" spans="2:206" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="34" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="17" t="s">
@@ -5576,12 +5575,12 @@
       <c r="GX22" s="9"/>
     </row>
     <row r="23" spans="2:206" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="14" t="s">
         <v>99</v>
       </c>
@@ -5786,12 +5785,12 @@
       <c r="GX23" s="9"/>
     </row>
     <row r="24" spans="2:206" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="14" t="s">
         <v>100</v>
       </c>
@@ -5996,12 +5995,12 @@
       <c r="GX24" s="9"/>
     </row>
     <row r="25" spans="2:206" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="16" t="s">
         <v>125</v>
       </c>
@@ -6206,22 +6205,22 @@
       <c r="GX25" s="9"/>
     </row>
     <row r="26" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="34" t="s">
         <v>32</v>
       </c>
       <c r="H26" s="17" t="s">
@@ -6428,12 +6427,12 @@
       <c r="GX26" s="9"/>
     </row>
     <row r="27" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="14" t="s">
         <v>102</v>
       </c>
@@ -6639,8 +6638,8 @@
     </row>
     <row r="28" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
@@ -6848,22 +6847,22 @@
       <c r="GX28" s="9"/>
     </row>
     <row r="29" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="34" t="s">
         <v>61</v>
       </c>
       <c r="H29" s="17" t="s">
@@ -7071,8 +7070,8 @@
     </row>
     <row r="30" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
@@ -7280,29 +7279,29 @@
       <c r="GX30" s="9"/>
     </row>
     <row r="31" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="34" t="s">
         <v>72</v>
       </c>
       <c r="H31" s="17" t="s">
         <v>105</v>
       </c>
       <c r="I31" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -7502,17 +7501,17 @@
       <c r="GX31" s="9"/>
     </row>
     <row r="32" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="14" t="s">
         <v>106</v>
       </c>
       <c r="I32" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -7713,8 +7712,8 @@
     </row>
     <row r="33" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="24"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
@@ -7722,7 +7721,7 @@
         <v>107</v>
       </c>
       <c r="I33" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -7922,29 +7921,29 @@
       <c r="GX33" s="9"/>
     </row>
     <row r="34" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="34" t="s">
         <v>66</v>
       </c>
       <c r="H34" s="17" t="s">
         <v>108</v>
       </c>
       <c r="I34" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -8145,8 +8144,8 @@
     </row>
     <row r="35" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="24"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -8154,7 +8153,7 @@
         <v>109</v>
       </c>
       <c r="I35" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -8354,29 +8353,29 @@
       <c r="GX35" s="9"/>
     </row>
     <row r="36" spans="2:206" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="34" t="s">
         <v>69</v>
       </c>
       <c r="H36" s="17" t="s">
         <v>110</v>
       </c>
       <c r="I36" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -8577,8 +8576,8 @@
     </row>
     <row r="37" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
@@ -8586,7 +8585,7 @@
         <v>111</v>
       </c>
       <c r="I37" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -8786,29 +8785,29 @@
       <c r="GX37" s="9"/>
     </row>
     <row r="38" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="34" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="17" t="s">
         <v>112</v>
       </c>
       <c r="I38" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -9009,8 +9008,8 @@
     </row>
     <row r="39" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="24"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
@@ -9018,7 +9017,7 @@
         <v>113</v>
       </c>
       <c r="I39" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -9218,29 +9217,29 @@
       <c r="GX39" s="9"/>
     </row>
     <row r="40" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="34" t="s">
         <v>78</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>114</v>
       </c>
       <c r="I40" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -9441,8 +9440,8 @@
     </row>
     <row r="41" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="24"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
@@ -9450,7 +9449,7 @@
         <v>115</v>
       </c>
       <c r="I41" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -9650,29 +9649,29 @@
       <c r="GX41" s="9"/>
     </row>
     <row r="42" spans="2:206" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="34" t="s">
         <v>31</v>
       </c>
       <c r="H42" s="17" t="s">
         <v>116</v>
       </c>
       <c r="I42" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -9873,8 +9872,8 @@
     </row>
     <row r="43" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="24"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
@@ -9882,7 +9881,7 @@
         <v>127</v>
       </c>
       <c r="I43" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -10304,22 +10303,22 @@
       <c r="GX44" s="9"/>
     </row>
     <row r="45" spans="2:206" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="34" t="s">
         <v>85</v>
       </c>
       <c r="H45" s="17" t="s">
@@ -10526,12 +10525,12 @@
       <c r="GX45" s="9"/>
     </row>
     <row r="46" spans="2:206" ht="65.25" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
       <c r="H46" s="14" t="s">
         <v>119</v>
       </c>
@@ -52307,6 +52306,75 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="B2:I4"/>
@@ -52323,75 +52391,6 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I46">
     <cfRule type="expression" dxfId="0" priority="1">
